--- a/NRI_STLF_Data/WeatherData/T_semnan/T_semnan94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_semnan/T_semnan94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_semnan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
   <si>
     <t>Rain</t>
   </si>
@@ -42,12 +47,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -135,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,7 +175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AD388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -464,7 +469,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -544,7 +549,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -624,7 +629,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -701,7 +706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -778,7 +783,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -858,7 +863,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -935,7 +940,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1012,7 +1017,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1089,7 +1094,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1169,7 +1174,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1249,7 +1254,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1326,7 +1331,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1403,7 +1408,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1477,7 +1482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1551,7 +1556,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1773,7 +1778,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -1998,7 +2003,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2078,7 +2083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2238,7 +2243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2386,7 +2391,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2537,7 +2542,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2688,7 +2693,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2836,7 +2841,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2910,7 +2915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -2984,7 +2989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3061,7 +3066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3283,7 +3288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3357,7 +3362,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3431,7 +3436,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3505,7 +3510,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3579,7 +3584,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3656,7 +3661,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3733,7 +3738,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3807,7 +3812,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3884,7 +3889,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -3958,7 +3963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4035,7 +4040,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4109,7 +4114,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4266,7 +4271,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4340,7 +4345,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4414,7 +4419,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4491,7 +4496,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4568,7 +4573,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4645,7 +4650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4722,7 +4727,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4796,7 +4801,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4870,7 +4875,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -4947,7 +4952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5021,7 +5026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5101,7 +5106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5255,7 +5260,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5329,7 +5334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5480,7 +5485,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5560,7 +5565,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5634,7 +5639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5708,7 +5713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5785,7 +5790,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -5862,7 +5867,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -5936,7 +5941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6010,7 +6015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6087,7 +6092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6164,7 +6169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6241,7 +6246,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6392,7 +6397,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6540,7 +6545,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6614,7 +6619,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6768,7 +6773,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -6842,7 +6847,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -6916,7 +6921,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -6993,7 +6998,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7147,7 +7152,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7221,7 +7226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7295,7 +7300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7369,7 +7374,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7446,7 +7451,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7523,7 +7528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7600,7 +7605,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7674,7 +7679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7748,7 +7753,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -7825,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -7902,7 +7907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -7976,7 +7981,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8053,7 +8058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8127,7 +8132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8201,7 +8206,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8275,7 +8280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8349,7 +8354,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8423,7 +8428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8500,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8654,7 +8659,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8728,7 +8733,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -8802,7 +8807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -8879,7 +8884,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -8956,7 +8961,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9030,7 +9035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9104,7 +9109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9178,7 +9183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9252,7 +9257,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9329,7 +9334,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9403,7 +9408,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9480,7 +9485,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9557,7 +9562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9637,7 +9642,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9714,7 +9719,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -9788,7 +9793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -9862,7 +9867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -9936,7 +9941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10010,7 +10015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10084,7 +10089,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10158,7 +10163,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10232,7 +10237,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10309,7 +10314,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10386,7 +10391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10460,7 +10465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10537,7 +10542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10611,7 +10616,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10685,7 +10690,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -10759,7 +10764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -10833,7 +10838,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -10907,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -10984,7 +10989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11061,7 +11066,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11138,7 +11143,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11215,7 +11220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11289,7 +11294,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11363,7 +11368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11437,7 +11442,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11511,7 +11516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11585,7 +11590,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11659,7 +11664,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -11733,7 +11738,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -11810,7 +11815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -11887,7 +11892,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -11961,7 +11966,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12035,7 +12040,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12109,7 +12114,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12186,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12260,7 +12265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12337,7 +12342,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12414,7 +12419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12488,7 +12493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12562,7 +12567,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12639,7 +12644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -12713,7 +12718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -12787,7 +12792,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -12864,7 +12869,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -12941,7 +12946,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13018,7 +13023,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13092,7 +13097,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13169,7 +13174,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13243,7 +13248,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13320,7 +13325,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13397,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13474,7 +13479,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13554,7 +13559,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13631,7 +13636,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -13708,7 +13713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -13785,7 +13790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -13862,7 +13867,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -13942,7 +13947,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14022,7 +14027,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14102,7 +14107,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14179,7 +14184,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14256,7 +14261,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14330,7 +14335,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14404,7 +14409,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14478,7 +14483,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14552,7 +14557,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14626,7 +14631,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -14703,7 +14708,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -14780,7 +14785,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -14857,7 +14862,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -14934,7 +14939,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15011,7 +15016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15088,7 +15093,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15168,7 +15173,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15245,7 +15250,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15322,7 +15327,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15399,7 +15404,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15476,7 +15481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15553,7 +15558,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15630,7 +15635,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -15710,7 +15715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -15787,7 +15792,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -15864,7 +15869,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -15941,7 +15946,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16018,7 +16023,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16095,7 +16100,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16172,7 +16177,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16249,7 +16254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16326,7 +16331,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16406,7 +16411,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16483,7 +16488,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16560,7 +16565,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16637,7 +16642,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -16714,7 +16719,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -16791,7 +16796,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -16871,7 +16876,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -16948,7 +16953,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17022,7 +17027,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17099,7 +17104,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17176,7 +17181,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17253,7 +17258,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17330,7 +17335,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17410,7 +17415,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17490,7 +17495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17567,7 +17572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17647,7 +17652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -17724,7 +17729,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -17801,7 +17806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -17878,7 +17883,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -17955,7 +17960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18032,7 +18037,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18109,7 +18114,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18186,7 +18191,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18266,7 +18271,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18343,7 +18348,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18417,7 +18422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18494,7 +18499,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18571,7 +18576,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18645,7 +18650,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -18722,7 +18727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -18799,7 +18804,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -18879,7 +18884,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -18959,7 +18964,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19039,7 +19044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19116,7 +19121,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19193,7 +19198,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19267,7 +19272,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19341,7 +19346,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19415,7 +19420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19492,7 +19497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19569,7 +19574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19646,7 +19651,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -19720,7 +19725,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -19797,7 +19802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -19877,7 +19882,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -19957,7 +19962,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20037,7 +20042,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20114,7 +20119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20191,7 +20196,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20268,7 +20273,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20348,7 +20353,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20428,7 +20433,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20505,7 +20510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20582,7 +20587,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -20659,7 +20664,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -20736,7 +20741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -20813,7 +20818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -20890,7 +20895,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -20970,7 +20975,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21047,7 +21052,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21124,7 +21129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21201,7 +21206,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21278,7 +21283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21355,7 +21360,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21432,7 +21437,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21509,7 +21514,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21583,7 +21588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -21660,7 +21665,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -21737,7 +21742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -21814,7 +21819,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -21891,7 +21896,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -21965,7 +21970,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22039,7 +22044,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22119,7 +22124,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22199,7 +22204,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22279,7 +22284,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22359,7 +22364,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22433,7 +22438,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22510,7 +22515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22587,7 +22592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -22664,7 +22669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -22741,7 +22746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -22821,7 +22826,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -22901,7 +22906,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -22981,7 +22986,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23058,7 +23063,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23135,7 +23140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23209,7 +23214,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23283,7 +23288,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23360,7 +23365,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23437,7 +23442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23511,7 +23516,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23585,7 +23590,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -23659,7 +23664,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -23736,7 +23741,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -23813,7 +23818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -23890,7 +23895,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -23967,7 +23972,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24047,7 +24052,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24127,7 +24132,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24204,7 +24209,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24281,7 +24286,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24358,7 +24363,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24435,7 +24440,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24509,7 +24514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24586,7 +24591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -24663,7 +24668,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -24740,7 +24745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -24817,7 +24822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -24891,7 +24896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -24965,7 +24970,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25039,7 +25044,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25116,7 +25121,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25196,7 +25201,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25273,7 +25278,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25350,7 +25355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25427,7 +25432,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25501,7 +25506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25575,7 +25580,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -25652,7 +25657,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -25729,7 +25734,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -25806,7 +25811,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -25883,7 +25888,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -25960,7 +25965,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26037,7 +26042,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26114,7 +26119,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26191,7 +26196,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26268,7 +26273,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26345,7 +26350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26425,7 +26430,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26499,7 +26504,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26576,7 +26581,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -26650,7 +26655,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -26727,7 +26732,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -26807,7 +26812,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -26884,7 +26889,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -26961,7 +26966,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -27035,7 +27040,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27112,7 +27117,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27189,7 +27194,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27266,7 +27271,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27340,7 +27345,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27414,7 +27419,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27488,7 +27493,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27562,7 +27567,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -27639,7 +27644,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -27716,7 +27721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -27793,7 +27798,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -27867,7 +27872,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -27944,7 +27949,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28021,7 +28026,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28101,7 +28106,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28178,7 +28183,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28256,1453 +28261,6 @@
       </c>
       <c r="AA365">
         <v>230</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>19</v>
-      </c>
-      <c r="G366">
-        <v>10</v>
-      </c>
-      <c r="H366">
-        <v>1</v>
-      </c>
-      <c r="I366">
-        <v>-8</v>
-      </c>
-      <c r="J366">
-        <v>-11</v>
-      </c>
-      <c r="K366">
-        <v>-14</v>
-      </c>
-      <c r="L366">
-        <v>31</v>
-      </c>
-      <c r="M366">
-        <v>18</v>
-      </c>
-      <c r="N366">
-        <v>6</v>
-      </c>
-      <c r="O366">
-        <v>1016</v>
-      </c>
-      <c r="P366">
-        <v>1014</v>
-      </c>
-      <c r="Q366">
-        <v>1012</v>
-      </c>
-      <c r="R366">
-        <v>14</v>
-      </c>
-      <c r="S366">
-        <v>12</v>
-      </c>
-      <c r="T366">
-        <v>10</v>
-      </c>
-      <c r="U366">
-        <v>29</v>
-      </c>
-      <c r="V366">
-        <v>8</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>4</v>
-      </c>
-      <c r="AA366">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>22</v>
-      </c>
-      <c r="G367">
-        <v>15</v>
-      </c>
-      <c r="H367">
-        <v>8</v>
-      </c>
-      <c r="I367">
-        <v>9</v>
-      </c>
-      <c r="J367">
-        <v>-3</v>
-      </c>
-      <c r="K367">
-        <v>-6</v>
-      </c>
-      <c r="L367">
-        <v>77</v>
-      </c>
-      <c r="M367">
-        <v>26</v>
-      </c>
-      <c r="N367">
-        <v>9</v>
-      </c>
-      <c r="O367">
-        <v>1016</v>
-      </c>
-      <c r="P367">
-        <v>1013</v>
-      </c>
-      <c r="Q367">
-        <v>1010</v>
-      </c>
-      <c r="R367">
-        <v>14</v>
-      </c>
-      <c r="S367">
-        <v>10</v>
-      </c>
-      <c r="T367">
-        <v>6</v>
-      </c>
-      <c r="U367">
-        <v>23</v>
-      </c>
-      <c r="V367">
-        <v>8</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>2</v>
-      </c>
-      <c r="Z367" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA367">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>15</v>
-      </c>
-      <c r="G368">
-        <v>12</v>
-      </c>
-      <c r="H368">
-        <v>8</v>
-      </c>
-      <c r="I368">
-        <v>9</v>
-      </c>
-      <c r="J368">
-        <v>7</v>
-      </c>
-      <c r="K368">
-        <v>4</v>
-      </c>
-      <c r="L368">
-        <v>88</v>
-      </c>
-      <c r="M368">
-        <v>64</v>
-      </c>
-      <c r="N368">
-        <v>46</v>
-      </c>
-      <c r="O368">
-        <v>1014</v>
-      </c>
-      <c r="P368">
-        <v>1011</v>
-      </c>
-      <c r="Q368">
-        <v>1007</v>
-      </c>
-      <c r="R368">
-        <v>18</v>
-      </c>
-      <c r="S368">
-        <v>10</v>
-      </c>
-      <c r="T368">
-        <v>6</v>
-      </c>
-      <c r="U368">
-        <v>23</v>
-      </c>
-      <c r="V368">
-        <v>8</v>
-      </c>
-      <c r="X368">
-        <v>3.05</v>
-      </c>
-      <c r="Y368">
-        <v>6</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA368">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>14</v>
-      </c>
-      <c r="G369">
-        <v>9</v>
-      </c>
-      <c r="H369">
-        <v>5</v>
-      </c>
-      <c r="I369">
-        <v>6</v>
-      </c>
-      <c r="J369">
-        <v>2</v>
-      </c>
-      <c r="K369">
-        <v>-2</v>
-      </c>
-      <c r="L369">
-        <v>81</v>
-      </c>
-      <c r="M369">
-        <v>59</v>
-      </c>
-      <c r="N369">
-        <v>25</v>
-      </c>
-      <c r="O369">
-        <v>1015</v>
-      </c>
-      <c r="P369">
-        <v>1012</v>
-      </c>
-      <c r="Q369">
-        <v>1009</v>
-      </c>
-      <c r="R369">
-        <v>14</v>
-      </c>
-      <c r="S369">
-        <v>12</v>
-      </c>
-      <c r="T369">
-        <v>10</v>
-      </c>
-      <c r="U369">
-        <v>23</v>
-      </c>
-      <c r="V369">
-        <v>5</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>3</v>
-      </c>
-      <c r="AA369">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>18</v>
-      </c>
-      <c r="G370">
-        <v>11</v>
-      </c>
-      <c r="H370">
-        <v>4</v>
-      </c>
-      <c r="I370">
-        <v>2</v>
-      </c>
-      <c r="J370">
-        <v>-1</v>
-      </c>
-      <c r="K370">
-        <v>-6</v>
-      </c>
-      <c r="L370">
-        <v>71</v>
-      </c>
-      <c r="M370">
-        <v>39</v>
-      </c>
-      <c r="N370">
-        <v>10</v>
-      </c>
-      <c r="O370">
-        <v>1021</v>
-      </c>
-      <c r="P370">
-        <v>1019</v>
-      </c>
-      <c r="Q370">
-        <v>1014</v>
-      </c>
-      <c r="R370">
-        <v>19</v>
-      </c>
-      <c r="S370">
-        <v>13</v>
-      </c>
-      <c r="T370">
-        <v>10</v>
-      </c>
-      <c r="U370">
-        <v>14</v>
-      </c>
-      <c r="V370">
-        <v>5</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>5</v>
-      </c>
-      <c r="AA370">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>20</v>
-      </c>
-      <c r="G371">
-        <v>14</v>
-      </c>
-      <c r="H371">
-        <v>8</v>
-      </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
-      <c r="J371">
-        <v>-3</v>
-      </c>
-      <c r="K371">
-        <v>-6</v>
-      </c>
-      <c r="L371">
-        <v>47</v>
-      </c>
-      <c r="M371">
-        <v>28</v>
-      </c>
-      <c r="N371">
-        <v>10</v>
-      </c>
-      <c r="O371">
-        <v>1022</v>
-      </c>
-      <c r="P371">
-        <v>1019</v>
-      </c>
-      <c r="Q371">
-        <v>1014</v>
-      </c>
-      <c r="R371">
-        <v>14</v>
-      </c>
-      <c r="S371">
-        <v>13</v>
-      </c>
-      <c r="T371">
-        <v>10</v>
-      </c>
-      <c r="U371">
-        <v>8</v>
-      </c>
-      <c r="V371">
-        <v>2</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="Y371">
-        <v>4</v>
-      </c>
-      <c r="AA371">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>19</v>
-      </c>
-      <c r="G372">
-        <v>16</v>
-      </c>
-      <c r="H372">
-        <v>12</v>
-      </c>
-      <c r="I372">
-        <v>8</v>
-      </c>
-      <c r="J372">
-        <v>1</v>
-      </c>
-      <c r="K372">
-        <v>-2</v>
-      </c>
-      <c r="L372">
-        <v>67</v>
-      </c>
-      <c r="M372">
-        <v>34</v>
-      </c>
-      <c r="N372">
-        <v>15</v>
-      </c>
-      <c r="O372">
-        <v>1018</v>
-      </c>
-      <c r="P372">
-        <v>1016</v>
-      </c>
-      <c r="Q372">
-        <v>1014</v>
-      </c>
-      <c r="R372">
-        <v>10</v>
-      </c>
-      <c r="S372">
-        <v>9</v>
-      </c>
-      <c r="T372">
-        <v>3</v>
-      </c>
-      <c r="U372">
-        <v>14</v>
-      </c>
-      <c r="V372">
-        <v>5</v>
-      </c>
-      <c r="X372">
-        <v>0.25</v>
-      </c>
-      <c r="Y372">
-        <v>8</v>
-      </c>
-      <c r="Z372" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA372">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>19</v>
-      </c>
-      <c r="G373">
-        <v>15</v>
-      </c>
-      <c r="H373">
-        <v>11</v>
-      </c>
-      <c r="I373">
-        <v>9</v>
-      </c>
-      <c r="J373">
-        <v>7</v>
-      </c>
-      <c r="K373">
-        <v>6</v>
-      </c>
-      <c r="L373">
-        <v>77</v>
-      </c>
-      <c r="M373">
-        <v>57</v>
-      </c>
-      <c r="N373">
-        <v>35</v>
-      </c>
-      <c r="O373">
-        <v>1018</v>
-      </c>
-      <c r="P373">
-        <v>1012</v>
-      </c>
-      <c r="Q373">
-        <v>1007</v>
-      </c>
-      <c r="R373">
-        <v>11</v>
-      </c>
-      <c r="S373">
-        <v>10</v>
-      </c>
-      <c r="T373">
-        <v>8</v>
-      </c>
-      <c r="U373">
-        <v>23</v>
-      </c>
-      <c r="V373">
-        <v>6</v>
-      </c>
-      <c r="X373">
-        <v>0.51</v>
-      </c>
-      <c r="Y373">
-        <v>8</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA373">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>23</v>
-      </c>
-      <c r="G374">
-        <v>17</v>
-      </c>
-      <c r="H374">
-        <v>9</v>
-      </c>
-      <c r="I374">
-        <v>8</v>
-      </c>
-      <c r="J374">
-        <v>5</v>
-      </c>
-      <c r="K374">
-        <v>0</v>
-      </c>
-      <c r="L374">
-        <v>82</v>
-      </c>
-      <c r="M374">
-        <v>45</v>
-      </c>
-      <c r="N374">
-        <v>12</v>
-      </c>
-      <c r="O374">
-        <v>1012</v>
-      </c>
-      <c r="P374">
-        <v>1009</v>
-      </c>
-      <c r="Q374">
-        <v>1004</v>
-      </c>
-      <c r="R374">
-        <v>18</v>
-      </c>
-      <c r="S374">
-        <v>11</v>
-      </c>
-      <c r="T374">
-        <v>10</v>
-      </c>
-      <c r="U374">
-        <v>26</v>
-      </c>
-      <c r="V374">
-        <v>8</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>4</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA374">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>24</v>
-      </c>
-      <c r="G375">
-        <v>19</v>
-      </c>
-      <c r="H375">
-        <v>13</v>
-      </c>
-      <c r="I375">
-        <v>9</v>
-      </c>
-      <c r="J375">
-        <v>4</v>
-      </c>
-      <c r="K375">
-        <v>-3</v>
-      </c>
-      <c r="L375">
-        <v>72</v>
-      </c>
-      <c r="M375">
-        <v>37</v>
-      </c>
-      <c r="N375">
-        <v>11</v>
-      </c>
-      <c r="O375">
-        <v>1009</v>
-      </c>
-      <c r="P375">
-        <v>1006</v>
-      </c>
-      <c r="Q375">
-        <v>1001</v>
-      </c>
-      <c r="R375">
-        <v>11</v>
-      </c>
-      <c r="S375">
-        <v>10</v>
-      </c>
-      <c r="T375">
-        <v>10</v>
-      </c>
-      <c r="U375">
-        <v>26</v>
-      </c>
-      <c r="V375">
-        <v>8</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>4</v>
-      </c>
-      <c r="Z375" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA375">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>19</v>
-      </c>
-      <c r="G376">
-        <v>14</v>
-      </c>
-      <c r="H376">
-        <v>8</v>
-      </c>
-      <c r="I376">
-        <v>0</v>
-      </c>
-      <c r="J376">
-        <v>-7</v>
-      </c>
-      <c r="K376">
-        <v>-20</v>
-      </c>
-      <c r="L376">
-        <v>41</v>
-      </c>
-      <c r="M376">
-        <v>23</v>
-      </c>
-      <c r="N376">
-        <v>4</v>
-      </c>
-      <c r="O376">
-        <v>1014</v>
-      </c>
-      <c r="P376">
-        <v>1009</v>
-      </c>
-      <c r="Q376">
-        <v>1004</v>
-      </c>
-      <c r="R376">
-        <v>14</v>
-      </c>
-      <c r="S376">
-        <v>12</v>
-      </c>
-      <c r="T376">
-        <v>10</v>
-      </c>
-      <c r="U376">
-        <v>35</v>
-      </c>
-      <c r="V376">
-        <v>11</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>2</v>
-      </c>
-      <c r="AA376">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>18</v>
-      </c>
-      <c r="G377">
-        <v>12</v>
-      </c>
-      <c r="H377">
-        <v>5</v>
-      </c>
-      <c r="I377">
-        <v>-4</v>
-      </c>
-      <c r="J377">
-        <v>-7</v>
-      </c>
-      <c r="K377">
-        <v>-12</v>
-      </c>
-      <c r="L377">
-        <v>43</v>
-      </c>
-      <c r="M377">
-        <v>23</v>
-      </c>
-      <c r="N377">
-        <v>6</v>
-      </c>
-      <c r="O377">
-        <v>1018</v>
-      </c>
-      <c r="P377">
-        <v>1015</v>
-      </c>
-      <c r="Q377">
-        <v>1011</v>
-      </c>
-      <c r="R377">
-        <v>19</v>
-      </c>
-      <c r="S377">
-        <v>15</v>
-      </c>
-      <c r="T377">
-        <v>10</v>
-      </c>
-      <c r="U377">
-        <v>18</v>
-      </c>
-      <c r="V377">
-        <v>5</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>2</v>
-      </c>
-      <c r="AA377">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>12</v>
-      </c>
-      <c r="G378">
-        <v>11</v>
-      </c>
-      <c r="H378">
-        <v>9</v>
-      </c>
-      <c r="I378">
-        <v>-2</v>
-      </c>
-      <c r="J378">
-        <v>-6</v>
-      </c>
-      <c r="K378">
-        <v>-9</v>
-      </c>
-      <c r="L378">
-        <v>41</v>
-      </c>
-      <c r="M378">
-        <v>26</v>
-      </c>
-      <c r="N378">
-        <v>14</v>
-      </c>
-      <c r="O378">
-        <v>1019</v>
-      </c>
-      <c r="P378">
-        <v>1015</v>
-      </c>
-      <c r="Q378">
-        <v>1010</v>
-      </c>
-      <c r="R378">
-        <v>14</v>
-      </c>
-      <c r="S378">
-        <v>12</v>
-      </c>
-      <c r="T378">
-        <v>10</v>
-      </c>
-      <c r="U378">
-        <v>35</v>
-      </c>
-      <c r="V378">
-        <v>19</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>8</v>
-      </c>
-      <c r="AA378">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>15</v>
-      </c>
-      <c r="G379">
-        <v>10</v>
-      </c>
-      <c r="H379">
-        <v>5</v>
-      </c>
-      <c r="I379">
-        <v>0</v>
-      </c>
-      <c r="J379">
-        <v>-4</v>
-      </c>
-      <c r="K379">
-        <v>-9</v>
-      </c>
-      <c r="L379">
-        <v>57</v>
-      </c>
-      <c r="M379">
-        <v>32</v>
-      </c>
-      <c r="N379">
-        <v>18</v>
-      </c>
-      <c r="O379">
-        <v>1021</v>
-      </c>
-      <c r="P379">
-        <v>1018</v>
-      </c>
-      <c r="Q379">
-        <v>1016</v>
-      </c>
-      <c r="R379">
-        <v>14</v>
-      </c>
-      <c r="S379">
-        <v>12</v>
-      </c>
-      <c r="T379">
-        <v>10</v>
-      </c>
-      <c r="U379">
-        <v>19</v>
-      </c>
-      <c r="V379">
-        <v>6</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>3</v>
-      </c>
-      <c r="AA379">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>19</v>
-      </c>
-      <c r="G380">
-        <v>12</v>
-      </c>
-      <c r="H380">
-        <v>5</v>
-      </c>
-      <c r="I380">
-        <v>-4</v>
-      </c>
-      <c r="J380">
-        <v>-7</v>
-      </c>
-      <c r="K380">
-        <v>-10</v>
-      </c>
-      <c r="L380">
-        <v>46</v>
-      </c>
-      <c r="M380">
-        <v>25</v>
-      </c>
-      <c r="N380">
-        <v>7</v>
-      </c>
-      <c r="O380">
-        <v>1018</v>
-      </c>
-      <c r="P380">
-        <v>1016</v>
-      </c>
-      <c r="Q380">
-        <v>1013</v>
-      </c>
-      <c r="R380">
-        <v>14</v>
-      </c>
-      <c r="S380">
-        <v>12</v>
-      </c>
-      <c r="T380">
-        <v>10</v>
-      </c>
-      <c r="U380">
-        <v>19</v>
-      </c>
-      <c r="V380">
-        <v>5</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>6</v>
-      </c>
-      <c r="AA380">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>21</v>
-      </c>
-      <c r="G381">
-        <v>16</v>
-      </c>
-      <c r="H381">
-        <v>9</v>
-      </c>
-      <c r="I381">
-        <v>-4</v>
-      </c>
-      <c r="J381">
-        <v>-6</v>
-      </c>
-      <c r="K381">
-        <v>-8</v>
-      </c>
-      <c r="L381">
-        <v>30</v>
-      </c>
-      <c r="M381">
-        <v>19</v>
-      </c>
-      <c r="N381">
-        <v>7</v>
-      </c>
-      <c r="O381">
-        <v>1016</v>
-      </c>
-      <c r="P381">
-        <v>1013</v>
-      </c>
-      <c r="Q381">
-        <v>1009</v>
-      </c>
-      <c r="R381">
-        <v>14</v>
-      </c>
-      <c r="S381">
-        <v>12</v>
-      </c>
-      <c r="T381">
-        <v>10</v>
-      </c>
-      <c r="U381">
-        <v>26</v>
-      </c>
-      <c r="V381">
-        <v>8</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>2</v>
-      </c>
-      <c r="AA381">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>21</v>
-      </c>
-      <c r="G382">
-        <v>14</v>
-      </c>
-      <c r="H382">
-        <v>8</v>
-      </c>
-      <c r="I382">
-        <v>-2</v>
-      </c>
-      <c r="J382">
-        <v>-4</v>
-      </c>
-      <c r="K382">
-        <v>-6</v>
-      </c>
-      <c r="L382">
-        <v>37</v>
-      </c>
-      <c r="M382">
-        <v>25</v>
-      </c>
-      <c r="N382">
-        <v>10</v>
-      </c>
-      <c r="O382">
-        <v>1016</v>
-      </c>
-      <c r="P382">
-        <v>1013</v>
-      </c>
-      <c r="Q382">
-        <v>1010</v>
-      </c>
-      <c r="R382">
-        <v>14</v>
-      </c>
-      <c r="S382">
-        <v>12</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>11</v>
-      </c>
-      <c r="V382">
-        <v>3</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>3</v>
-      </c>
-      <c r="AA382">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>24</v>
-      </c>
-      <c r="G383">
-        <v>17</v>
-      </c>
-      <c r="H383">
-        <v>9</v>
-      </c>
-      <c r="I383">
-        <v>-3</v>
-      </c>
-      <c r="J383">
-        <v>-5</v>
-      </c>
-      <c r="K383">
-        <v>-8</v>
-      </c>
-      <c r="L383">
-        <v>37</v>
-      </c>
-      <c r="M383">
-        <v>19</v>
-      </c>
-      <c r="N383">
-        <v>6</v>
-      </c>
-      <c r="O383">
-        <v>1016</v>
-      </c>
-      <c r="P383">
-        <v>1013</v>
-      </c>
-      <c r="Q383">
-        <v>1009</v>
-      </c>
-      <c r="R383">
-        <v>18</v>
-      </c>
-      <c r="S383">
-        <v>12</v>
-      </c>
-      <c r="T383">
-        <v>10</v>
-      </c>
-      <c r="U383">
-        <v>19</v>
-      </c>
-      <c r="V383">
-        <v>5</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>3</v>
-      </c>
-      <c r="AA383">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>25</v>
-      </c>
-      <c r="G384">
-        <v>18</v>
-      </c>
-      <c r="H384">
-        <v>12</v>
-      </c>
-      <c r="I384">
-        <v>-3</v>
-      </c>
-      <c r="J384">
-        <v>-5</v>
-      </c>
-      <c r="K384">
-        <v>-7</v>
-      </c>
-      <c r="L384">
-        <v>31</v>
-      </c>
-      <c r="M384">
-        <v>16</v>
-      </c>
-      <c r="N384">
-        <v>7</v>
-      </c>
-      <c r="O384">
-        <v>1016</v>
-      </c>
-      <c r="P384">
-        <v>1013</v>
-      </c>
-      <c r="Q384">
-        <v>1009</v>
-      </c>
-      <c r="R384">
-        <v>14</v>
-      </c>
-      <c r="S384">
-        <v>12</v>
-      </c>
-      <c r="T384">
-        <v>10</v>
-      </c>
-      <c r="U384">
-        <v>19</v>
-      </c>
-      <c r="V384">
-        <v>6</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>2</v>
-      </c>
-      <c r="AA384">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>23</v>
-      </c>
-      <c r="G385">
-        <v>18</v>
-      </c>
-      <c r="H385">
-        <v>12</v>
-      </c>
-      <c r="I385">
-        <v>2</v>
-      </c>
-      <c r="J385">
-        <v>-3</v>
-      </c>
-      <c r="K385">
-        <v>-6</v>
-      </c>
-      <c r="L385">
-        <v>34</v>
-      </c>
-      <c r="M385">
-        <v>21</v>
-      </c>
-      <c r="N385">
-        <v>10</v>
-      </c>
-      <c r="O385">
-        <v>1018</v>
-      </c>
-      <c r="P385">
-        <v>1015</v>
-      </c>
-      <c r="Q385">
-        <v>1010</v>
-      </c>
-      <c r="R385">
-        <v>14</v>
-      </c>
-      <c r="S385">
-        <v>11</v>
-      </c>
-      <c r="T385">
-        <v>10</v>
-      </c>
-      <c r="U385">
-        <v>35</v>
-      </c>
-      <c r="V385">
-        <v>6</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>3</v>
-      </c>
-      <c r="AA385">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>19</v>
-      </c>
-      <c r="G386">
-        <v>16</v>
-      </c>
-      <c r="H386">
-        <v>12</v>
-      </c>
-      <c r="I386">
-        <v>8</v>
-      </c>
-      <c r="J386">
-        <v>7</v>
-      </c>
-      <c r="K386">
-        <v>3</v>
-      </c>
-      <c r="L386">
-        <v>72</v>
-      </c>
-      <c r="M386">
-        <v>54</v>
-      </c>
-      <c r="N386">
-        <v>33</v>
-      </c>
-      <c r="O386">
-        <v>1021</v>
-      </c>
-      <c r="P386">
-        <v>1017</v>
-      </c>
-      <c r="Q386">
-        <v>1014</v>
-      </c>
-      <c r="R386">
-        <v>11</v>
-      </c>
-      <c r="S386">
-        <v>10</v>
-      </c>
-      <c r="T386">
-        <v>7</v>
-      </c>
-      <c r="U386">
-        <v>23</v>
-      </c>
-      <c r="V386">
-        <v>8</v>
-      </c>
-      <c r="X386">
-        <v>3.05</v>
-      </c>
-      <c r="Y386">
-        <v>3</v>
-      </c>
-      <c r="Z386" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA386">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>23</v>
-      </c>
-      <c r="G387">
-        <v>17</v>
-      </c>
-      <c r="H387">
-        <v>9</v>
-      </c>
-      <c r="I387">
-        <v>7</v>
-      </c>
-      <c r="J387">
-        <v>3</v>
-      </c>
-      <c r="K387">
-        <v>0</v>
-      </c>
-      <c r="L387">
-        <v>67</v>
-      </c>
-      <c r="M387">
-        <v>38</v>
-      </c>
-      <c r="N387">
-        <v>12</v>
-      </c>
-      <c r="O387">
-        <v>1018</v>
-      </c>
-      <c r="P387">
-        <v>1016</v>
-      </c>
-      <c r="Q387">
-        <v>1011</v>
-      </c>
-      <c r="R387">
-        <v>14</v>
-      </c>
-      <c r="S387">
-        <v>11</v>
-      </c>
-      <c r="T387">
-        <v>10</v>
-      </c>
-      <c r="U387">
-        <v>11</v>
-      </c>
-      <c r="V387">
-        <v>5</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>3</v>
-      </c>
-      <c r="AA387">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>24</v>
-      </c>
-      <c r="G388">
-        <v>19</v>
-      </c>
-      <c r="H388">
-        <v>14</v>
-      </c>
-      <c r="I388">
-        <v>5</v>
-      </c>
-      <c r="J388">
-        <v>3</v>
-      </c>
-      <c r="K388">
-        <v>2</v>
-      </c>
-      <c r="L388">
-        <v>48</v>
-      </c>
-      <c r="M388">
-        <v>31</v>
-      </c>
-      <c r="N388">
-        <v>14</v>
-      </c>
-      <c r="O388">
-        <v>1016</v>
-      </c>
-      <c r="P388">
-        <v>1013</v>
-      </c>
-      <c r="Q388">
-        <v>1008</v>
-      </c>
-      <c r="R388">
-        <v>18</v>
-      </c>
-      <c r="S388">
-        <v>11</v>
-      </c>
-      <c r="T388">
-        <v>10</v>
-      </c>
-      <c r="U388">
-        <v>14</v>
-      </c>
-      <c r="V388">
-        <v>3</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>5</v>
-      </c>
-      <c r="AA388">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -29716,7 +28274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29728,7 +28286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
